--- a/dist/document/doctor/doctor.xlsx
+++ b/dist/document/doctor/doctor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/lamgift/dist/document/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/lamgift/dist/document/doctor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC26BC1A-8DE5-7042-A0CB-2ACC35C56C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77163B59-2A24-E441-9038-935AB39255ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="7860" windowWidth="10000" windowHeight="12920" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
+    <workbookView xWindow="21560" yWindow="3120" windowWidth="15140" windowHeight="16200" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>FullName</t>
   </si>
@@ -209,13 +209,16 @@
   </si>
   <si>
     <t>Huỳnh Thị Liễu</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,14 +230,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -257,17 +252,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -583,514 +575,751 @@
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C2" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B2, " ", REPT(" ", 200)), 200))</f>
+        <v>An</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="C3" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B3, " ", REPT(" ", 200)), 200))</f>
+        <v>Anh</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="C4" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B4, " ", REPT(" ", 200)), 200))</f>
+        <v>Anh</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B5, " ", REPT(" ", 200)), 200))</f>
+        <v>Bửu</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="C6" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B6, " ", REPT(" ", 200)), 200))</f>
+        <v>Chân</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="C7" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B7, " ", REPT(" ", 200)), 200))</f>
+        <v>Đào</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="C8" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B8, " ", REPT(" ", 200)), 200))</f>
+        <v>Diễm</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="C9" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B9, " ", REPT(" ", 200)), 200))</f>
+        <v>Đủ</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>47</v>
+      </c>
+      <c r="C10" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B10, " ", REPT(" ", 200)), 200))</f>
+        <v>Dung</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B11, " ", REPT(" ", 200)), 200))</f>
+        <v>Dũng</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="C12" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B12, " ", REPT(" ", 200)), 200))</f>
+        <v>Giang</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="C13" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B13, " ", REPT(" ", 200)), 200))</f>
+        <v>Hằng</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="C14" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B14, " ", REPT(" ", 200)), 200))</f>
+        <v>Hoa</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="C15" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B15, " ", REPT(" ", 200)), 200))</f>
+        <v>Hưng</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="C16" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B16, " ", REPT(" ", 200)), 200))</f>
+        <v>Hưng</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B17, " ", REPT(" ", 200)), 200))</f>
+        <v>Hưng</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B18, " ", REPT(" ", 200)), 200))</f>
+        <v>Hương</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B19, " ", REPT(" ", 200)), 200))</f>
+        <v>Hường</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B20, " ", REPT(" ", 200)), 200))</f>
+        <v>Huyền</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B21, " ", REPT(" ", 200)), 200))</f>
+        <v>Khuê</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B22, " ", REPT(" ", 200)), 200))</f>
+        <v>Kiên</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B23, " ", REPT(" ", 200)), 200))</f>
+        <v>Lãm</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B24, " ", REPT(" ", 200)), 200))</f>
+        <v>Liễu</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B25, " ", REPT(" ", 200)), 200))</f>
+        <v>Linh</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B26, " ", REPT(" ", 200)), 200))</f>
+        <v>Linh</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B27, " ", REPT(" ", 200)), 200))</f>
+        <v>Long</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B28, " ", REPT(" ", 200)), 200))</f>
+        <v>Lý</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B29, " ", REPT(" ", 200)), 200))</f>
+        <v>Mai</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B30, " ", REPT(" ", 200)), 200))</f>
+        <v>Nga</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B31, " ", REPT(" ", 200)), 200))</f>
+        <v>Nhân</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B32, " ", REPT(" ", 200)), 200))</f>
+        <v>Nhung</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B33, " ", REPT(" ", 200)), 200))</f>
+        <v>Nhựt</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B34, " ", REPT(" ", 200)), 200))</f>
+        <v>Phái</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B35, " ", REPT(" ", 200)), 200))</f>
+        <v>Phận</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B36, " ", REPT(" ", 200)), 200))</f>
+        <v>Phú</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B37, " ", REPT(" ", 200)), 200))</f>
+        <v>Phúc</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B38, " ", REPT(" ", 200)), 200))</f>
+        <v>Phúc</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B39, " ", REPT(" ", 200)), 200))</f>
+        <v>Sáng</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B40, " ", REPT(" ", 200)), 200))</f>
+        <v>Sảng</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B41, " ", REPT(" ", 200)), 200))</f>
+        <v>Sơn</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B42, " ", REPT(" ", 200)), 200))</f>
+        <v>Sơn</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B43, " ", REPT(" ", 200)), 200))</f>
+        <v>Tâm</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B44, " ", REPT(" ", 200)), 200))</f>
+        <v>Thái</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B45, " ", REPT(" ", 200)), 200))</f>
+        <v>Thân</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B46, " ", REPT(" ", 200)), 200))</f>
+        <v>Thành</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B47, " ", REPT(" ", 200)), 200))</f>
+        <v>Thảo</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B48, " ", REPT(" ", 200)), 200))</f>
+        <v>Thất</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B49, " ", REPT(" ", 200)), 200))</f>
+        <v>Thiền</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B50, " ", REPT(" ", 200)), 200))</f>
+        <v>Thịnh</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B51, " ", REPT(" ", 200)), 200))</f>
+        <v>Thoang</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B52, " ", REPT(" ", 200)), 200))</f>
+        <v>Thông</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B53, " ", REPT(" ", 200)), 200))</f>
+        <v>Tín</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B54, " ", REPT(" ", 200)), 200))</f>
+        <v>Toàn</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B55, " ", REPT(" ", 200)), 200))</f>
+        <v>Trâm</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B56, " ", REPT(" ", 200)), 200))</f>
+        <v>Trang</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B57, " ", REPT(" ", 200)), 200))</f>
+        <v>Trang</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>40</v>
+      </c>
+      <c r="B58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B58, " ", REPT(" ", 200)), 200))</f>
+        <v>Vũ</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B59" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="C59" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B59, " ", REPT(" ", 200)), 200))</f>
+        <v>Vũ</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B60" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE($B60, " ", REPT(" ", 200)), 200))</f>
+        <v>Vy</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1121,6 +1350,10 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C69">
+    <sortCondition ref="C2:C69"/>
+    <sortCondition ref="B2:B69"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/dist/document/doctor/doctor.xlsx
+++ b/dist/document/doctor/doctor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/lamgift/dist/document/doctor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77163B59-2A24-E441-9038-935AB39255ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D627C8-85FE-BF4B-95FB-33A1799C77E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21560" yWindow="3120" windowWidth="15140" windowHeight="16200" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
+    <workbookView xWindow="17480" yWindow="480" windowWidth="10000" windowHeight="16720" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>FullName</t>
   </si>
@@ -212,13 +212,199 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Ngô Minh Đức</t>
+  </si>
+  <si>
+    <t>Trần Thị Tố Hoa</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuyết Vân</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Trình</t>
+  </si>
+  <si>
+    <t>Võ Trọng Thịnh</t>
+  </si>
+  <si>
+    <t>Phạm Huỳnh Bảo Trân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Đăng</t>
+  </si>
+  <si>
+    <t>Bùi Bỉnh Huân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim Thuý</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Phước</t>
+  </si>
+  <si>
+    <t>Huỳnh Đức Thục Đoan</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Xuân Hoa</t>
+  </si>
+  <si>
+    <t>Neang Si PhátS</t>
+  </si>
+  <si>
+    <t>Dương Đăng Ngọc Phương</t>
+  </si>
+  <si>
+    <t>Trương Công Thành</t>
+  </si>
+  <si>
+    <t>Tôn Nữ Sao Mai</t>
+  </si>
+  <si>
+    <t>Phạm Thị Thu Thuỷ</t>
+  </si>
+  <si>
+    <t>Lê Tuấn Khuê</t>
+  </si>
+  <si>
+    <t>Huỳnh Hoàng Điệp</t>
+  </si>
+  <si>
+    <t>Dương Quang Triết</t>
+  </si>
+  <si>
+    <t>Phan Hữu Bội Hoàn</t>
+  </si>
+  <si>
+    <t>Võ Hiếu Thành</t>
+  </si>
+  <si>
+    <t>Phạm Võ Minh Thắng</t>
+  </si>
+  <si>
+    <t>Lê Thị Minh Phú</t>
+  </si>
+  <si>
+    <t>Trần Thị Hồng Vân</t>
+  </si>
+  <si>
+    <t>Ngô Thị Lệ Dung</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Khôi</t>
+  </si>
+  <si>
+    <t>Nguyễn Linh Thoại</t>
+  </si>
+  <si>
+    <t>Mai Huỳnh Lạc</t>
+  </si>
+  <si>
+    <t>Phạm Thế Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ánh Hồng</t>
+  </si>
+  <si>
+    <t>Phan Nguyên Thiên Châu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim Uyên</t>
+  </si>
+  <si>
+    <t>Trần Văn Nam</t>
+  </si>
+  <si>
+    <t>Phan Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Nguyễn An</t>
+  </si>
+  <si>
+    <t>Đặng Văn Mon</t>
+  </si>
+  <si>
+    <t>Phan Xuân Trung</t>
+  </si>
+  <si>
+    <t>Huỳnh Trác Luân</t>
+  </si>
+  <si>
+    <t>Trần Minh Đúng</t>
+  </si>
+  <si>
+    <t>Trương Đoàn Chí Trung</t>
+  </si>
+  <si>
+    <t>Lê Thông Lưu</t>
+  </si>
+  <si>
+    <t>Đỗ Ngọc Anh Khoa</t>
+  </si>
+  <si>
+    <t>Dương Xuân Tùng</t>
+  </si>
+  <si>
+    <t>Bùi Quang Vinh</t>
+  </si>
+  <si>
+    <t>Mã Nguyễn Minh Tùng</t>
+  </si>
+  <si>
+    <t>Hồ Tấn Đạt</t>
+  </si>
+  <si>
+    <t>Phù Dung Thái Biểu</t>
+  </si>
+  <si>
+    <t>Phạm Công Chánh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thuý Nga</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Hoàn</t>
+  </si>
+  <si>
+    <t>Hoàng Tường</t>
+  </si>
+  <si>
+    <t>Bùi Văn Kiệt</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Thảo</t>
+  </si>
+  <si>
+    <t>Trương Thị Mỹ Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Cường</t>
+  </si>
+  <si>
+    <t>Trương Ngọc Lễ</t>
+  </si>
+  <si>
+    <t>Trần Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Lê Trọng Quý</t>
+  </si>
+  <si>
+    <t>Tạ Kim Liên</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hiền</t>
+  </si>
+  <si>
+    <t>Trương Hoàng Anh Thư</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -234,16 +420,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -251,13 +448,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA9A9A9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA9A9A9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA9A9A9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9A9A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D254FFF-8293-0A45-80B0-8E9C0554F8E3}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="179" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,755 +813,1454 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B2, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" ref="C2:C33" si="0">TRIM(RIGHT(SUBSTITUTE($B2, " ", REPT(" ", 200)), 200))</f>
         <v>An</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B3, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Anh</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="C4" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B4, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Anh</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B5, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Bửu</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="C6" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B6, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Chân</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B7, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Đào</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B8, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Diễm</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B9, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Đủ</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B10, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Dung</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B11, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Dũng</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
       </c>
       <c r="C12" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B12, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Giang</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B13, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Hằng</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
       </c>
       <c r="C14" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B14, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Hoa</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B15, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Hưng</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
       </c>
       <c r="C16" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B16, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Hưng</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
       </c>
       <c r="C17" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B17, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Hưng</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B18, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Hương</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B19, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Hường</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B20, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Huyền</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
       <c r="C21" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B21, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Khuê</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B22, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Kiên</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
       </c>
       <c r="C23" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B23, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Lãm</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s">
         <v>60</v>
       </c>
       <c r="C24" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B24, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Liễu</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
       </c>
       <c r="C25" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B25, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Linh</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B26, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Linh</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B27, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Long</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B28, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Lý</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
       </c>
       <c r="C29" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B29, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Mai</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
       <c r="C30" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B30, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Nga</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
       </c>
       <c r="C31" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B31, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Nhân</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B32, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Nhung</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
       </c>
       <c r="C33" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B33, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="0"/>
         <v>Nhựt</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
       </c>
       <c r="C34" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B34, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" ref="C34:C122" si="1">TRIM(RIGHT(SUBSTITUTE($B34, " ", REPT(" ", 200)), 200))</f>
         <v>Phái</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
         <v>49</v>
       </c>
       <c r="C35" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B35, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Phận</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
       </c>
       <c r="C36" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B36, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Phú</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B37, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Phúc</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C38" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B38, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Phúc</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B39, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Sáng</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B40, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Sảng</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B41, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Sơn</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
       </c>
       <c r="C42" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B42, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Sơn</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
       <c r="C43" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B43, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Tâm</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
       </c>
       <c r="C44" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B44, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Thái</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
       </c>
       <c r="C45" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B45, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Thân</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
       </c>
       <c r="C46" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B46, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Thành</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
         <v>39</v>
       </c>
       <c r="C47" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B47, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Thảo</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="C48" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B48, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Thất</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B49, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Thiền</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
         <v>46</v>
       </c>
       <c r="C50" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B50, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Thịnh</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
       </c>
       <c r="C51" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B51, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Thoang</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
       </c>
       <c r="C52" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B52, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Thông</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B53, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Tín</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="C54" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B54, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Toàn</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
       </c>
       <c r="C55" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B55, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Trâm</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
       <c r="C56" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B56, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Trang</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
       </c>
       <c r="C57" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B57, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Trang</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
         <v>40</v>
       </c>
       <c r="C58" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B58, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Vũ</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B59, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Vũ</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="B60" t="s">
         <v>27</v>
       </c>
       <c r="C60" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE($B60, " ", REPT(" ", 200)), 200))</f>
+        <f t="shared" si="1"/>
         <v>Vy</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="1"/>
+        <v>Đức</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>32</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="1"/>
+        <v>Hoa</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>90</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>Vân</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="1"/>
+        <v>Trình</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="1"/>
+        <v>Thịnh</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>119</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="1"/>
+        <v>Trân</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v>Đăng</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>Huân</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>Thuý</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>97</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>Phước</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>Đoan</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>153</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>Hoa</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>167</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>PhátS</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>Phương</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>60</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>Thành</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>Mai</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>57</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>Thuỷ</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>99</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>Khuê</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>105</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>Điệp</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>Triết</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>40</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>Hoàn</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>34</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>Thành</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>Thắng</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>203</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>Phú</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>Vân</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>28</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>Dung</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>Khôi</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>150</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>Thoại</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>223</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>Lạc</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>175</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>Anh</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>76</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>Hồng</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>183</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>Châu</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>53</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>Uyên</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>Nam</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>68</v>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuấn</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>169</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v>An</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>50</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v>Mon</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v>Trung</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v>Luân</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>179</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v>Đúng</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>18</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v>Trung</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>108</v>
+      </c>
+      <c r="B102" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v>Thư</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>151</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v>Lưu</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>219</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v>Khoa</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>48</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v>Tùng</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v>Vinh</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>33</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v>Tùng</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>56</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v>Đạt</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>55</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v>Biểu</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>41</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="1"/>
+        <v>Chánh</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>13</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="1"/>
+        <v>Nga</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>71</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="1"/>
+        <v>Hoàn</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>103</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="1"/>
+        <v>Tường</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>93</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="1"/>
+        <v>Kiệt</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>215</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="1"/>
+        <v>Thảo</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>172</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="1"/>
+        <v>Hoàng</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>84</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="1"/>
+        <v>Cường</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>91</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="1"/>
+        <v>Lễ</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>158</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuấn</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>87</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="1"/>
+        <v>Quý</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="1"/>
+        <v>Liên</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>100</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="1"/>
+        <v>Hiền</v>
       </c>
     </row>
   </sheetData>
